--- a/option_chain - Copy.xlsx
+++ b/option_chain - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb4cecaa05735e09/Desktop/bipinmsit/tradetools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="730" documentId="11_F25DC773A252ABDACC1048C589D870065ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD2CA3A1-5786-4C52-BA87-7F1D22F27200}"/>
+  <xr:revisionPtr revIDLastSave="842" documentId="11_F25DC773A252ABDACC1048C589D870065ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D56EAB5D-0C5C-4B88-8191-38C3E981A443}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,11 +448,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S200"/>
+  <dimension ref="A1:S150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -528,36 +528,36 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>287.8</v>
+        <v>247.45</v>
       </c>
       <c r="C2" s="2">
-        <v>22062</v>
+        <v>11485</v>
       </c>
       <c r="D2" s="2">
-        <v>-858</v>
+        <v>-906</v>
       </c>
       <c r="E2" s="3">
-        <v>21900</v>
+        <v>21950</v>
       </c>
       <c r="F2" s="2">
-        <v>24165</v>
+        <v>26291</v>
       </c>
       <c r="G2" s="2">
-        <v>144972</v>
+        <v>91758</v>
       </c>
       <c r="H2" s="2">
-        <v>9.65</v>
+        <v>11.3</v>
       </c>
       <c r="I2" s="2">
-        <f>G2/C2</f>
-        <v>6.5711177590426981</v>
+        <f>IF(G2&gt;0, G2/C2, "")</f>
+        <v>7.9893774488463212</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="2">
         <f>SUM(D2:D200)</f>
-        <v>188517</v>
+        <v>199143</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>13</v>
@@ -569,7 +569,7 @@
         <v>3</v>
       </c>
       <c r="O2" s="9">
-        <v>22164.65</v>
+        <v>22175.599999999999</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -577,36 +577,36 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>241.85</v>
+        <v>203.45</v>
       </c>
       <c r="C3" s="2">
-        <v>11599</v>
+        <v>104249</v>
       </c>
       <c r="D3" s="2">
-        <v>-792</v>
+        <v>-9623</v>
       </c>
       <c r="E3" s="3">
-        <v>21950</v>
+        <v>22000</v>
       </c>
       <c r="F3" s="2">
-        <v>25407</v>
+        <v>86474</v>
       </c>
       <c r="G3" s="2">
-        <v>90874</v>
+        <v>308246</v>
       </c>
       <c r="H3" s="2">
-        <v>14</v>
+        <v>17.05</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I66" si="0">G3/C3</f>
-        <v>7.834640917320459</v>
+        <f t="shared" ref="I3:I66" si="0">IF(G3&gt;0, G3/C3, "")</f>
+        <v>2.9568245258947328</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="2">
         <f>SUM(F2:F200)</f>
-        <v>578956</v>
+        <v>573074</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
@@ -614,36 +614,36 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>198.2</v>
+        <v>161.5</v>
       </c>
       <c r="C4" s="2">
-        <v>103220</v>
+        <v>50461</v>
       </c>
       <c r="D4" s="2">
-        <v>-10652</v>
+        <v>-9756</v>
       </c>
       <c r="E4" s="3">
-        <v>22000</v>
+        <v>22050</v>
       </c>
       <c r="F4" s="2">
-        <v>89356</v>
+        <v>59273</v>
       </c>
       <c r="G4" s="2">
-        <v>311128</v>
+        <v>117686</v>
       </c>
       <c r="H4" s="2">
-        <v>20.65</v>
+        <v>24.8</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>3.0142220499903121</v>
+        <v>2.3322169596321913</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="4">
         <f>ROUND(SUM(G2:G200)/SUM(C2:C200), 3)</f>
-        <v>1.181</v>
+        <v>1.0229999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -651,35 +651,35 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>156.85</v>
+        <v>122.65</v>
       </c>
       <c r="C5" s="2">
-        <v>49850</v>
+        <v>166298</v>
       </c>
       <c r="D5" s="2">
-        <v>-10367</v>
+        <v>20753</v>
       </c>
       <c r="E5" s="3">
-        <v>22050</v>
+        <v>22100</v>
       </c>
       <c r="F5" s="2">
-        <v>59845</v>
+        <v>169831</v>
       </c>
       <c r="G5" s="2">
-        <v>118258</v>
+        <v>305517</v>
       </c>
       <c r="H5" s="2">
-        <v>29.15</v>
+        <v>36.049999999999997</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>2.3722768304914745</v>
+        <v>1.8371658107734308</v>
       </c>
       <c r="J5" s="5">
-        <v>0.52473379629629624</v>
+        <v>0.5400462962962963</v>
       </c>
       <c r="K5" s="2">
-        <v>3.1760000000000002</v>
+        <v>2.9820000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -687,35 +687,35 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>119.15</v>
+        <v>88.9</v>
       </c>
       <c r="C6" s="2">
-        <v>165267</v>
+        <v>109093</v>
       </c>
       <c r="D6" s="2">
-        <v>19722</v>
+        <v>49349</v>
       </c>
       <c r="E6" s="3">
-        <v>22100</v>
+        <v>22150</v>
       </c>
       <c r="F6" s="2">
-        <v>165094</v>
+        <v>102497</v>
       </c>
       <c r="G6" s="2">
-        <v>300780</v>
+        <v>136144</v>
       </c>
       <c r="H6" s="2">
-        <v>40.85</v>
+        <v>52.35</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>1.8199640581604313</v>
+        <v>1.2479627473806751</v>
       </c>
       <c r="J6" s="5">
-        <v>0.52614583333333331</v>
+        <v>0.54144675925925922</v>
       </c>
       <c r="K6" s="2">
-        <v>3.0710000000000002</v>
+        <v>3.0070000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
@@ -723,35 +723,35 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>86.2</v>
+        <v>60.25</v>
       </c>
       <c r="C7" s="2">
-        <v>114306</v>
+        <v>182039</v>
       </c>
       <c r="D7" s="2">
-        <v>54562</v>
+        <v>50392</v>
       </c>
       <c r="E7" s="3">
-        <v>22150</v>
+        <v>22200</v>
       </c>
       <c r="F7" s="2">
-        <v>95346</v>
+        <v>88017</v>
       </c>
       <c r="G7" s="2">
-        <v>128993</v>
+        <v>134547</v>
       </c>
       <c r="H7" s="2">
-        <v>58.15</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>1.128488443301314</v>
+        <v>0.73911084987282949</v>
       </c>
       <c r="J7" s="5">
-        <v>0.52754629629629635</v>
+        <v>0.54340277777777779</v>
       </c>
       <c r="K7" s="2">
-        <v>3.0710000000000002</v>
+        <v>3.032</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
@@ -759,29 +759,35 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>58.45</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="C8" s="2">
-        <v>184282</v>
+        <v>85315</v>
       </c>
       <c r="D8" s="2">
-        <v>52635</v>
+        <v>29019</v>
       </c>
       <c r="E8" s="3">
-        <v>22200</v>
+        <v>22250</v>
       </c>
       <c r="F8" s="2">
-        <v>80844</v>
+        <v>14130</v>
       </c>
       <c r="G8" s="2">
-        <v>127374</v>
+        <v>23780</v>
       </c>
       <c r="H8" s="2">
-        <v>80.599999999999994</v>
+        <v>101.35</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>0.69119067516089472</v>
+        <v>0.27873175877629958</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.54479166666666667</v>
+      </c>
+      <c r="K8" s="2">
+        <v>3.032</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -789,29 +795,35 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>36.299999999999997</v>
+        <v>21.5</v>
       </c>
       <c r="C9" s="2">
-        <v>85294</v>
+        <v>127580</v>
       </c>
       <c r="D9" s="2">
-        <v>28998</v>
+        <v>-368</v>
       </c>
       <c r="E9" s="3">
-        <v>22250</v>
+        <v>22300</v>
       </c>
       <c r="F9" s="2">
-        <v>13610</v>
+        <v>22701</v>
       </c>
       <c r="G9" s="2">
-        <v>23260</v>
+        <v>52079</v>
       </c>
       <c r="H9" s="2">
-        <v>108.35</v>
+        <v>135.75</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="0"/>
-        <v>0.27270382441906815</v>
+        <v>0.40820661545696818</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.5461921296296296</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2.9729999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -819,29 +831,35 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>20.65</v>
+        <v>11.45</v>
       </c>
       <c r="C10" s="2">
-        <v>131742</v>
+        <v>88508</v>
       </c>
       <c r="D10" s="2">
-        <v>3794</v>
+        <v>14325</v>
       </c>
       <c r="E10" s="3">
-        <v>22300</v>
+        <v>22350</v>
       </c>
       <c r="F10" s="2">
-        <v>21474</v>
+        <v>2493</v>
       </c>
       <c r="G10" s="2">
-        <v>50852</v>
+        <v>6584</v>
       </c>
       <c r="H10" s="2">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="0"/>
-        <v>0.38599687267538069</v>
+        <v>7.4388755818683053E-2</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.54759259259259252</v>
+      </c>
+      <c r="K10" s="2">
+        <v>3.0609999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -849,29 +867,35 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>10.9</v>
+        <v>5.5</v>
       </c>
       <c r="C11" s="2">
-        <v>85588</v>
+        <v>165840</v>
       </c>
       <c r="D11" s="2">
-        <v>11405</v>
+        <v>42164</v>
       </c>
       <c r="E11" s="3">
-        <v>22350</v>
+        <v>22400</v>
       </c>
       <c r="F11" s="2">
-        <v>2912</v>
+        <v>1194</v>
       </c>
       <c r="G11" s="2">
-        <v>7003</v>
+        <v>15745</v>
       </c>
       <c r="H11" s="2">
-        <v>183.3</v>
+        <v>219.5</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="0"/>
-        <v>8.1822218067953451E-2</v>
+        <v>9.4940906898215147E-2</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.54899305555555555</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3.0459999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -879,1157 +903,959 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>5.4</v>
+        <v>2.6</v>
       </c>
       <c r="C12" s="2">
-        <v>163746</v>
+        <v>75454</v>
       </c>
       <c r="D12" s="2">
-        <v>40070</v>
+        <v>13794</v>
       </c>
       <c r="E12" s="3">
-        <v>22400</v>
+        <v>22450</v>
       </c>
       <c r="F12" s="2">
-        <v>903</v>
+        <v>173</v>
       </c>
       <c r="G12" s="2">
-        <v>15454</v>
+        <v>1270</v>
       </c>
       <c r="H12" s="2">
-        <v>227.85</v>
+        <v>265.89999999999998</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="0"/>
-        <v>9.4377877932896065E-2</v>
+        <v>1.6831446974315475E-2</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.55040509259259263</v>
+      </c>
+      <c r="K12" s="2">
+        <v>3.1379999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="I13" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="5">
+        <v>0.55180555555555555</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2.964</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="I14" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="5">
+        <v>0.55320601851851847</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2.964</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="I15" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" s="5">
+        <v>0.55459490740740736</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2.9510000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="I16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I17" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I18" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I19" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I20" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I21" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I22" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I23" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I24" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I25" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I26" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I27" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I28" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I29" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I30" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I31" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I32" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="5">
+        <v>0.55599537037037039</v>
+      </c>
+      <c r="K16" s="2">
+        <v>2.964</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J17" s="5">
+        <v>0.55739583333333331</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2.9550000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J18" s="5">
+        <v>0.55879629629629635</v>
+      </c>
+      <c r="K18" s="2">
+        <v>2.948</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J19" s="5">
+        <v>0.56019675925925927</v>
+      </c>
+      <c r="K19" s="2">
+        <v>2.8940000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="5">
+        <v>0.56160879629629623</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2.9140000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J21" s="5">
+        <v>0.56304398148148149</v>
+      </c>
+      <c r="K21" s="2">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="22" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="5">
+        <v>0.56445601851851845</v>
+      </c>
+      <c r="K22" s="2">
+        <v>3.0579999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J23" s="5">
+        <v>0.56586805555555553</v>
+      </c>
+      <c r="K23" s="2">
+        <v>3.0640000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J24" s="5">
+        <v>0.5672800925925926</v>
+      </c>
+      <c r="K24" s="2">
+        <v>3.0680000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J25" s="5">
+        <v>0.56869212962962956</v>
+      </c>
+      <c r="K25" s="2">
+        <v>3.1080000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J26" s="5">
+        <v>0.57010416666666663</v>
+      </c>
+      <c r="K26" s="2">
+        <v>3.137</v>
+      </c>
+    </row>
+    <row r="27" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J27" s="5">
+        <v>0.57151620370370371</v>
+      </c>
+      <c r="K27" s="2">
+        <v>3.1659999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J28" s="5">
+        <v>0.57297453703703705</v>
+      </c>
+      <c r="K28" s="2">
+        <v>2.8780000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="33" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I33" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="34" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I34" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="35" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I35" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="36" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I36" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="37" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I37" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="38" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I38" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="39" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I39" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="40" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I40" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="41" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I41" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="42" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I42" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="43" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I43" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="44" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I44" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="45" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I45" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="46" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I46" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="47" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I47" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="48" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I48" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="49" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I49" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="50" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I50" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="51" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I51" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="52" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I52" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="53" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I53" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="54" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I54" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="55" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I55" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="56" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I56" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="57" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I57" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="58" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I58" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="59" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I59" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I60" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="61" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I61" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="62" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I62" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="63" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I63" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="64" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I64" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="65" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I65" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="66" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I66" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="67" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I67" s="2" t="e">
-        <f t="shared" ref="I67:I130" si="1">G67/C67</f>
-        <v>#DIV/0!</v>
+      <c r="I67" s="2" t="str">
+        <f t="shared" ref="I67:I130" si="1">IF(G67&gt;0, G67/C67, "")</f>
+        <v/>
       </c>
     </row>
     <row r="68" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I68" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I68" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="69" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I69" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I69" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="70" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I70" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I70" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="71" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I71" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I71" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="72" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I72" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I72" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="73" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I73" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I73" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="74" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I74" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I74" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="75" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I75" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I75" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="76" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I76" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I76" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="77" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I77" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I77" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="78" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I78" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I78" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="79" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I79" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I79" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="80" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I80" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I80" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="81" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I81" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I81" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="82" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I82" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I82" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="83" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I83" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I83" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="84" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I84" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I84" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="85" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I85" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I85" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="86" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I86" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I86" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="87" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I87" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I87" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="88" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I88" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I88" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="89" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I89" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I89" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="90" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I90" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I90" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="91" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I91" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I91" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="92" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I92" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I92" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="93" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I93" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I93" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="94" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I94" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I94" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="95" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I95" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I95" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="96" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I96" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I96" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="97" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I97" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I97" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="98" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I98" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I98" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="99" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I99" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I99" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="100" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I100" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I100" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="101" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I101" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I101" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="102" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I102" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I102" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="103" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I103" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I103" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="104" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I104" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I104" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="105" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I105" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I105" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="106" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I106" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I106" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="107" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I107" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I107" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="108" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I108" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I108" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="109" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I109" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I109" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="110" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I110" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I110" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="111" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I111" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I111" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="112" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I112" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I112" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="113" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I113" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I113" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="114" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I114" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I114" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="115" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I115" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I115" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="116" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I116" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I116" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="117" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I117" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I117" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="118" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I118" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I118" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="119" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I119" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I119" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="120" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I120" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I120" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="121" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I121" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I121" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="122" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I122" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="123" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I123" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I123" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="124" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I124" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I124" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="125" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I125" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I125" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="126" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I126" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I126" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="127" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I127" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I127" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="128" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I128" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I128" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="129" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I129" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I129" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="130" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I130" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="I130" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="131" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I131" s="2" t="e">
-        <f t="shared" ref="I131:I194" si="2">G131/C131</f>
-        <v>#DIV/0!</v>
+      <c r="I131" s="2" t="str">
+        <f t="shared" ref="I131:I150" si="2">IF(G131&gt;0, G131/C131, "")</f>
+        <v/>
       </c>
     </row>
     <row r="132" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I132" s="2" t="e">
+      <c r="I132" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="133" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I133" s="2" t="e">
+      <c r="I133" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="134" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I134" s="2" t="e">
+      <c r="I134" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="135" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I135" s="2" t="e">
+      <c r="I135" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="136" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I136" s="2" t="e">
+      <c r="I136" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="137" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I137" s="2" t="e">
+      <c r="I137" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="138" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I138" s="2" t="e">
+      <c r="I138" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="139" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I139" s="2" t="e">
+      <c r="I139" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="140" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I140" s="2" t="e">
+      <c r="I140" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="141" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I141" s="2" t="e">
+      <c r="I141" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="142" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I142" s="2" t="e">
+      <c r="I142" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="143" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I143" s="2" t="e">
+      <c r="I143" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="144" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I144" s="2" t="e">
+      <c r="I144" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="145" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I145" s="2" t="e">
+      <c r="I145" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="146" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I146" s="2" t="e">
+      <c r="I146" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="147" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I147" s="2" t="e">
+      <c r="I147" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="148" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I148" s="2" t="e">
+      <c r="I148" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="149" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I149" s="2" t="e">
+      <c r="I149" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="150" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I150" s="2" t="e">
+      <c r="I150" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="151" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I151" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="152" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I152" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="153" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I153" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="154" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I154" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="155" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I155" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="156" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I156" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="157" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I157" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="158" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I158" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="159" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I159" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="160" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I160" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="161" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I161" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="162" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I162" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="163" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I163" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="164" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I164" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="165" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I165" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="166" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I166" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="167" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I167" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="168" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I168" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="169" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I169" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="170" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I170" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="171" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I171" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="172" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I172" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="173" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I173" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="174" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I174" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="175" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I175" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="176" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I176" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="177" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I177" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="178" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I178" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="179" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I179" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="180" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I180" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="181" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I181" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="182" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I182" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="183" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I183" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="184" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I184" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="185" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I185" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="186" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I186" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="187" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I187" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="188" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I188" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="189" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I189" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="190" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I190" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="191" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I191" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="192" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I192" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="193" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I193" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="194" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I194" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="195" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I195" s="2" t="e">
-        <f t="shared" ref="I195:I200" si="3">G195/C195</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="196" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I196" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="197" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I197" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="198" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I198" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="199" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I199" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="200" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I200" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/option_chain - Copy.xlsx
+++ b/option_chain - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb4cecaa05735e09/Desktop/bipinmsit/tradetools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="842" documentId="11_F25DC773A252ABDACC1048C589D870065ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D56EAB5D-0C5C-4B88-8191-38C3E981A443}"/>
+  <xr:revisionPtr revIDLastSave="2675" documentId="11_F25DC773A252ABDACC1048C589D870065ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A344821-C1F9-44DC-AEAF-BA4331DA4909}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Call_LTP</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Index</t>
   </si>
   <si>
-    <t>Expiry</t>
-  </si>
-  <si>
     <t>Spot</t>
   </si>
   <si>
@@ -70,6 +67,15 @@
   </si>
   <si>
     <t>No_of_Strike</t>
+  </si>
+  <si>
+    <t>BANKNIFTY</t>
+  </si>
+  <si>
+    <t>FINNIFTY</t>
+  </si>
+  <si>
+    <t>MIDCPNIFTY</t>
   </si>
 </sst>
 </file>
@@ -93,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,12 +118,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -131,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -148,20 +148,14 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,35 +442,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S150"/>
+  <dimension ref="A1:R150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomLeft" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="5" style="2"/>
+    <col min="14" max="14" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -510,641 +504,500 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>247.45</v>
+        <v>177.15</v>
       </c>
       <c r="C2" s="2">
-        <v>11485</v>
+        <v>186682</v>
       </c>
       <c r="D2" s="2">
-        <v>-906</v>
+        <v>52314</v>
       </c>
       <c r="E2" s="3">
-        <v>21950</v>
+        <v>22300</v>
       </c>
       <c r="F2" s="2">
-        <v>26291</v>
+        <v>375542</v>
       </c>
       <c r="G2" s="2">
-        <v>91758</v>
+        <v>417234</v>
       </c>
       <c r="H2" s="2">
-        <v>11.3</v>
+        <v>1.45</v>
       </c>
       <c r="I2" s="2">
-        <f>IF(G2&gt;0, G2/C2, "")</f>
-        <v>7.9893774488463212</v>
+        <f>IF(G2&gt;0, ROUND(G2/C2,3), "")</f>
+        <v>2.2349999999999999</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="2">
         <f>SUM(D2:D200)</f>
-        <v>199143</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="10">
+        <v>1236416</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="7">
         <v>45379</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="8">
+        <v>45385</v>
+      </c>
+      <c r="O2" s="8">
+        <v>45384</v>
+      </c>
+      <c r="P2" s="8">
+        <v>45383</v>
+      </c>
+      <c r="Q2" s="6">
         <v>3</v>
       </c>
-      <c r="O2" s="9">
-        <v>22175.599999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="R2" s="6">
+        <v>22456.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>203.45</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2">
-        <v>104249</v>
+        <v>187938</v>
       </c>
       <c r="D3" s="2">
-        <v>-9623</v>
+        <v>73115</v>
       </c>
       <c r="E3" s="3">
-        <v>22000</v>
+        <v>22350</v>
       </c>
       <c r="F3" s="2">
-        <v>86474</v>
+        <v>272834</v>
       </c>
       <c r="G3" s="2">
-        <v>308246</v>
+        <v>276304</v>
       </c>
       <c r="H3" s="2">
-        <v>17.05</v>
+        <v>2.35</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I66" si="0">IF(G3&gt;0, G3/C3, "")</f>
-        <v>2.9568245258947328</v>
+        <f t="shared" ref="I3:I66" si="0">IF(G3&gt;0, ROUND(G3/C3,3), "")</f>
+        <v>1.47</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="2">
         <f>SUM(F2:F200)</f>
-        <v>573074</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+        <v>2008729</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>161.5</v>
+        <v>78.25</v>
       </c>
       <c r="C4" s="2">
-        <v>50461</v>
+        <v>266382</v>
       </c>
       <c r="D4" s="2">
-        <v>-9756</v>
+        <v>80579</v>
       </c>
       <c r="E4" s="3">
-        <v>22050</v>
+        <v>22400</v>
       </c>
       <c r="F4" s="2">
-        <v>59273</v>
+        <v>431853</v>
       </c>
       <c r="G4" s="2">
-        <v>117686</v>
+        <v>447388</v>
       </c>
       <c r="H4" s="2">
-        <v>24.8</v>
+        <v>5.4</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>2.3322169596321913</v>
+        <v>1.679</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="4">
         <f>ROUND(SUM(G2:G200)/SUM(C2:C200), 3)</f>
-        <v>1.0229999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>122.65</v>
+        <v>36.950000000000003</v>
       </c>
       <c r="C5" s="2">
-        <v>166298</v>
+        <v>249083</v>
       </c>
       <c r="D5" s="2">
-        <v>20753</v>
+        <v>132109</v>
       </c>
       <c r="E5" s="3">
-        <v>22100</v>
+        <v>22450</v>
       </c>
       <c r="F5" s="2">
-        <v>169831</v>
+        <v>352377</v>
       </c>
       <c r="G5" s="2">
-        <v>305517</v>
+        <v>353748</v>
       </c>
       <c r="H5" s="2">
-        <v>36.049999999999997</v>
+        <v>12.4</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>1.8371658107734308</v>
+        <v>1.42</v>
       </c>
       <c r="J5" s="5">
-        <v>0.5400462962962963</v>
+        <v>0.61675925925925923</v>
       </c>
       <c r="K5" s="2">
-        <v>2.9820000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+        <v>1.129</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>88.9</v>
+        <v>6.3</v>
       </c>
       <c r="C6" s="2">
-        <v>109093</v>
+        <v>542335</v>
       </c>
       <c r="D6" s="2">
-        <v>49349</v>
+        <v>285274</v>
       </c>
       <c r="E6" s="3">
-        <v>22150</v>
+        <v>22500</v>
       </c>
       <c r="F6" s="2">
-        <v>102497</v>
+        <v>438579</v>
       </c>
       <c r="G6" s="2">
-        <v>136144</v>
+        <v>460240</v>
       </c>
       <c r="H6" s="2">
-        <v>52.35</v>
+        <v>32.9</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>1.2479627473806751</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="J6" s="5">
-        <v>0.54144675925925922</v>
+        <v>0.61750000000000005</v>
       </c>
       <c r="K6" s="2">
-        <v>3.0070000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+        <v>1.141</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>60.25</v>
+        <v>1.05</v>
       </c>
       <c r="C7" s="2">
-        <v>182039</v>
+        <v>377938</v>
       </c>
       <c r="D7" s="2">
-        <v>50392</v>
+        <v>311825</v>
       </c>
       <c r="E7" s="3">
-        <v>22200</v>
+        <v>22550</v>
       </c>
       <c r="F7" s="2">
-        <v>88017</v>
+        <v>103427</v>
       </c>
       <c r="G7" s="2">
-        <v>134547</v>
+        <v>104149</v>
       </c>
       <c r="H7" s="2">
-        <v>74.099999999999994</v>
+        <v>77.3</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>0.73911084987282949</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="J7" s="5">
-        <v>0.54340277777777779</v>
+        <v>0.61908564814814815</v>
       </c>
       <c r="K7" s="2">
-        <v>3.032</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+        <v>1.6020000000000001</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>37.299999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="C8" s="2">
-        <v>85315</v>
+        <v>490189</v>
       </c>
       <c r="D8" s="2">
-        <v>29019</v>
+        <v>301200</v>
       </c>
       <c r="E8" s="3">
-        <v>22250</v>
+        <v>22600</v>
       </c>
       <c r="F8" s="2">
-        <v>14130</v>
+        <v>34117</v>
       </c>
       <c r="G8" s="2">
-        <v>23780</v>
+        <v>37786</v>
       </c>
       <c r="H8" s="2">
-        <v>101.35</v>
+        <v>127.05</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>0.27873175877629958</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="J8" s="5">
-        <v>0.54479166666666667</v>
+        <v>0.61990740740740746</v>
       </c>
       <c r="K8" s="2">
-        <v>3.032</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>21.5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>127580</v>
-      </c>
-      <c r="D9" s="2">
-        <v>-368</v>
-      </c>
-      <c r="E9" s="3">
-        <v>22300</v>
-      </c>
-      <c r="F9" s="2">
-        <v>22701</v>
-      </c>
-      <c r="G9" s="2">
-        <v>52079</v>
-      </c>
-      <c r="H9" s="2">
-        <v>135.75</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.40820661545696818</v>
+        <v>1.613</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="I9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J9" s="5">
-        <v>0.5461921296296296</v>
+        <v>0.62177083333333327</v>
       </c>
       <c r="K9" s="2">
-        <v>2.9729999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>11.45</v>
-      </c>
-      <c r="C10" s="2">
-        <v>88508</v>
-      </c>
-      <c r="D10" s="2">
-        <v>14325</v>
-      </c>
-      <c r="E10" s="3">
-        <v>22350</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2493</v>
-      </c>
-      <c r="G10" s="2">
-        <v>6584</v>
-      </c>
-      <c r="H10" s="2">
-        <v>175</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="0"/>
-        <v>7.4388755818683053E-2</v>
+        <v>1.163</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="I10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J10" s="5">
-        <v>0.54759259259259252</v>
+        <v>0.62180555555555561</v>
       </c>
       <c r="K10" s="2">
-        <v>3.0609999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>165840</v>
-      </c>
-      <c r="D11" s="2">
-        <v>42164</v>
-      </c>
-      <c r="E11" s="3">
-        <v>22400</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1194</v>
-      </c>
-      <c r="G11" s="2">
-        <v>15745</v>
-      </c>
-      <c r="H11" s="2">
-        <v>219.5</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="0"/>
-        <v>9.4940906898215147E-2</v>
+        <v>1.613</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="I11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J11" s="5">
-        <v>0.54899305555555555</v>
+        <v>0.62192129629629633</v>
       </c>
       <c r="K11" s="2">
-        <v>3.0459999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="C12" s="2">
-        <v>75454</v>
-      </c>
-      <c r="D12" s="2">
-        <v>13794</v>
-      </c>
-      <c r="E12" s="3">
-        <v>22450</v>
-      </c>
-      <c r="F12" s="2">
-        <v>173</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1270</v>
-      </c>
-      <c r="H12" s="2">
-        <v>265.89999999999998</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="0"/>
-        <v>1.6831446974315475E-2</v>
+        <v>1.163</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="I12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J12" s="5">
-        <v>0.55040509259259263</v>
+        <v>0.62284722222222222</v>
       </c>
       <c r="K12" s="2">
-        <v>3.1379999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+        <v>1.625</v>
+      </c>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I13" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J13" s="5">
-        <v>0.55180555555555555</v>
-      </c>
-      <c r="K13" s="2">
-        <v>2.964</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I14" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J14" s="5">
-        <v>0.55320601851851847</v>
-      </c>
-      <c r="K14" s="2">
-        <v>2.964</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I15" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J15" s="5">
-        <v>0.55459490740740736</v>
-      </c>
-      <c r="K15" s="2">
-        <v>2.9510000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I16" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J16" s="5">
-        <v>0.55599537037037039</v>
-      </c>
-      <c r="K16" s="2">
-        <v>2.964</v>
-      </c>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I17" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J17" s="5">
-        <v>0.55739583333333331</v>
-      </c>
-      <c r="K17" s="2">
-        <v>2.9550000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I18" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J18" s="5">
-        <v>0.55879629629629635</v>
-      </c>
-      <c r="K18" s="2">
-        <v>2.948</v>
-      </c>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I19" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J19" s="5">
-        <v>0.56019675925925927</v>
-      </c>
-      <c r="K19" s="2">
-        <v>2.8940000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I20" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J20" s="5">
-        <v>0.56160879629629623</v>
-      </c>
-      <c r="K20" s="2">
-        <v>2.9140000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I21" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J21" s="5">
-        <v>0.56304398148148149</v>
-      </c>
-      <c r="K21" s="2">
-        <v>2.99</v>
-      </c>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I22" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J22" s="5">
-        <v>0.56445601851851845</v>
-      </c>
-      <c r="K22" s="2">
-        <v>3.0579999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I23" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J23" s="5">
-        <v>0.56586805555555553</v>
-      </c>
-      <c r="K23" s="2">
-        <v>3.0640000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J24" s="5">
-        <v>0.5672800925925926</v>
-      </c>
-      <c r="K24" s="2">
-        <v>3.0680000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I25" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J25" s="5">
-        <v>0.56869212962962956</v>
-      </c>
-      <c r="K25" s="2">
-        <v>3.1080000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I26" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J26" s="5">
-        <v>0.57010416666666663</v>
-      </c>
-      <c r="K26" s="2">
-        <v>3.137</v>
-      </c>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I27" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J27" s="5">
-        <v>0.57151620370370371</v>
-      </c>
-      <c r="K27" s="2">
-        <v>3.1659999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I28" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J28" s="5">
-        <v>0.57297453703703705</v>
-      </c>
-      <c r="K28" s="2">
-        <v>2.8780000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I29" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="9:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I30" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="9:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I31" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="9:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I32" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1356,7 +1209,7 @@
     </row>
     <row r="67" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I67" s="2" t="str">
-        <f t="shared" ref="I67:I130" si="1">IF(G67&gt;0, G67/C67, "")</f>
+        <f t="shared" ref="I67:I130" si="1">IF(G67&gt;0, ROUND(G67/C67,3), "")</f>
         <v/>
       </c>
     </row>
@@ -1740,7 +1593,7 @@
     </row>
     <row r="131" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I131" s="2" t="str">
-        <f t="shared" ref="I131:I150" si="2">IF(G131&gt;0, G131/C131, "")</f>
+        <f t="shared" ref="I131:I150" si="2">IF(G131&gt;0, ROUND(G131/C131,3), "")</f>
         <v/>
       </c>
     </row>
@@ -1859,15 +1712,27 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{96B84952-593E-4414-97B0-5B64851D6666}">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K10 J6 L6 M7:M10 J5 L3:L4 Q2" xr:uid="{4CBC4F7A-CAE0-4273-9B44-B686111ECF83}">
+      <formula1>"""3,5,10,15,20"""</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J10 L6:L10 L3:L4" xr:uid="{638F3690-EE2A-454A-9984-B221A0E4CF0F}">
+      <formula1>"""NIFTY,BANKNIFTY,FINNIFTY,MIDCPNIFTY,SENSEX"""</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{1CBDF931-DD4D-4825-A66A-4FEF531E64FA}">
       <formula1>"""28-Mar-2024,04-Apr-2024,10-Apr-2024,18-Apr-2024,25-Apr-2024,02-May-2024,30-May-2024,27-Jun-2024,26-Sep-2024,26-Dec-2024,26-Jun-2025,24-Dec-2025,25-Jun-2026,31-Dec-2026,24-Jun-2027,30-Dec-2027,29-Jun-2028,28-Dec-2028"""</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 K7:K10 M8:M10 L3:L4 J5:J6" xr:uid="{4CBC4F7A-CAE0-4273-9B44-B686111ECF83}">
-      <formula1>"""3,5,10,15,20"""</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{773D6187-3C21-4CFB-986C-BAAE6CF57711}">
+      <formula1>"""03-Apr-2024,10-Apr-2024,16-Apr-2024,24-Apr-2024,30-Apr-2024,29-May-2024,26-Jun-2024,25-Sep-2024,24-Dec-2024,26-Mar-2025"""</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J10 L2:L4 L8:L10" xr:uid="{638F3690-EE2A-454A-9984-B221A0E4CF0F}">
-      <formula1>"""NIFTY,BANKNIFTY,FINNIFTY,MIDCPNIFTY,SENSEX"""</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{478B916E-0B19-492A-8B86-5940E735B419}">
+      <formula1>"""02-Apr-2024,09-Apr-2024,16-Apr-2024,23-Apr-2024,30-Apr-2024,28-May-2024,25-Jun-2024"""</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{4DA76A91-6DD4-4492-8D94-9A9CA490D58C}">
+      <formula1>"""NIFTY,BANKNIFTY,FINNIFTY,MIDCPNIFTY"""</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{C95600A7-9701-477B-B112-B3EEF3FCBA36}">
+      <formula1>""""""</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/option_chain - Copy.xlsx
+++ b/option_chain - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb4cecaa05735e09/Desktop/bipinmsit/tradetools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2675" documentId="11_F25DC773A252ABDACC1048C589D870065ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A344821-C1F9-44DC-AEAF-BA4331DA4909}"/>
+  <xr:revisionPtr revIDLastSave="4939" documentId="11_F25DC773A252ABDACC1048C589D870065ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06F9E0AB-CB4A-4825-A71F-66C438D9D692}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,31 +131,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,7 +440,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R17" sqref="R17"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -527,57 +521,57 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>177.15</v>
+        <v>127.45</v>
       </c>
       <c r="C2" s="2">
-        <v>186682</v>
+        <v>115025</v>
       </c>
       <c r="D2" s="2">
-        <v>52314</v>
+        <v>-60974</v>
       </c>
       <c r="E2" s="3">
-        <v>22300</v>
+        <v>22200</v>
       </c>
       <c r="F2" s="2">
-        <v>375542</v>
+        <v>71835</v>
       </c>
       <c r="G2" s="2">
-        <v>417234</v>
+        <v>181819</v>
       </c>
       <c r="H2" s="2">
-        <v>1.45</v>
+        <v>0.15</v>
       </c>
       <c r="I2" s="2">
         <f>IF(G2&gt;0, ROUND(G2/C2,3), "")</f>
-        <v>2.2349999999999999</v>
+        <v>1.581</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="2">
         <f>SUM(D2:D200)</f>
-        <v>1236416</v>
-      </c>
-      <c r="L2" s="6" t="s">
+        <v>430243</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="4">
         <v>45379</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="4">
         <v>45385</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="4">
         <v>45384</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="4">
         <v>45383</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="2">
         <v>3</v>
       </c>
-      <c r="R2" s="6">
-        <v>22456.15</v>
+      <c r="R2" s="2">
+        <v>22326.9</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -585,419 +579,340 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>125</v>
+        <v>77.55</v>
       </c>
       <c r="C3" s="2">
-        <v>187938</v>
+        <v>151752</v>
       </c>
       <c r="D3" s="2">
-        <v>73115</v>
+        <v>71106</v>
       </c>
       <c r="E3" s="3">
-        <v>22350</v>
+        <v>22250</v>
       </c>
       <c r="F3" s="2">
-        <v>272834</v>
+        <v>143673</v>
       </c>
       <c r="G3" s="2">
-        <v>276304</v>
+        <v>163015</v>
       </c>
       <c r="H3" s="2">
-        <v>2.35</v>
+        <v>0.25</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" ref="I3:I66" si="0">IF(G3&gt;0, ROUND(G3/C3,3), "")</f>
-        <v>1.47</v>
+        <v>1.0740000000000001</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="2">
         <f>SUM(F2:F200)</f>
-        <v>2008729</v>
-      </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+        <v>1096108</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>78.25</v>
+        <v>27.6</v>
       </c>
       <c r="C4" s="2">
-        <v>266382</v>
+        <v>289038</v>
       </c>
       <c r="D4" s="2">
-        <v>80579</v>
+        <v>154670</v>
       </c>
       <c r="E4" s="3">
-        <v>22400</v>
+        <v>22300</v>
       </c>
       <c r="F4" s="2">
-        <v>431853</v>
+        <v>302946</v>
       </c>
       <c r="G4" s="2">
-        <v>447388</v>
+        <v>344638</v>
       </c>
       <c r="H4" s="2">
-        <v>5.4</v>
+        <v>0.1</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>1.679</v>
-      </c>
-      <c r="J4" s="4" t="s">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="5">
         <f>ROUND(SUM(G2:G200)/SUM(C2:C200), 3)</f>
-        <v>0.91100000000000003</v>
-      </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+        <v>0.875</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>36.950000000000003</v>
+        <v>0.15</v>
       </c>
       <c r="C5" s="2">
-        <v>249083</v>
+        <v>249136</v>
       </c>
       <c r="D5" s="2">
-        <v>132109</v>
+        <v>134313</v>
       </c>
       <c r="E5" s="3">
-        <v>22450</v>
+        <v>22350</v>
       </c>
       <c r="F5" s="2">
-        <v>352377</v>
+        <v>158508</v>
       </c>
       <c r="G5" s="2">
-        <v>353748</v>
+        <v>161978</v>
       </c>
       <c r="H5" s="2">
-        <v>12.4</v>
+        <v>23.1</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>1.42</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0.61675925925925923</v>
+        <v>0.65</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.83174768518518516</v>
       </c>
       <c r="K5" s="2">
-        <v>1.129</v>
-      </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+        <v>2.548</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>6.3</v>
+        <v>0.05</v>
       </c>
       <c r="C6" s="2">
-        <v>542335</v>
+        <v>250638</v>
       </c>
       <c r="D6" s="2">
-        <v>285274</v>
+        <v>64835</v>
       </c>
       <c r="E6" s="3">
-        <v>22500</v>
+        <v>22400</v>
       </c>
       <c r="F6" s="2">
-        <v>438579</v>
+        <v>199380</v>
       </c>
       <c r="G6" s="2">
-        <v>460240</v>
+        <v>214915</v>
       </c>
       <c r="H6" s="2">
-        <v>32.9</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1.141</v>
-      </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+        <v>0.85699999999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="C7" s="2">
-        <v>377938</v>
+        <v>164967</v>
       </c>
       <c r="D7" s="2">
-        <v>311825</v>
+        <v>47993</v>
       </c>
       <c r="E7" s="3">
-        <v>22550</v>
+        <v>22450</v>
       </c>
       <c r="F7" s="2">
-        <v>103427</v>
+        <v>128456</v>
       </c>
       <c r="G7" s="2">
-        <v>104149</v>
+        <v>129827</v>
       </c>
       <c r="H7" s="2">
-        <v>77.3</v>
+        <v>122.75</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0.61908564814814815</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1.6020000000000001</v>
-      </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+        <v>0.78700000000000003</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="C8" s="2">
-        <v>490189</v>
+        <v>275361</v>
       </c>
       <c r="D8" s="2">
-        <v>301200</v>
+        <v>18300</v>
       </c>
       <c r="E8" s="3">
-        <v>22600</v>
+        <v>22500</v>
       </c>
       <c r="F8" s="2">
-        <v>34117</v>
+        <v>91310</v>
       </c>
       <c r="G8" s="2">
-        <v>37786</v>
+        <v>112971</v>
       </c>
       <c r="H8" s="2">
-        <v>127.05</v>
+        <v>172.55</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0.61990740740740746</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1.613</v>
-      </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+        <v>0.41</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J9" s="5">
-        <v>0.62177083333333327</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1.163</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J10" s="5">
-        <v>0.62180555555555561</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1.613</v>
-      </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J11" s="5">
-        <v>0.62192129629629633</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1.163</v>
-      </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I12" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J12" s="5">
-        <v>0.62284722222222222</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1.625</v>
-      </c>
-      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I13" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I14" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I15" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I16" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M16" s="8"/>
-    </row>
-    <row r="17" spans="9:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I17" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M17" s="8"/>
-    </row>
-    <row r="18" spans="9:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I18" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M18" s="8"/>
-    </row>
-    <row r="19" spans="9:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I19" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I20" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I21" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I22" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I23" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I25" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I26" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I27" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I28" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I29" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I30" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I31" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I32" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1712,12 +1627,9 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K10 J6 L6 M7:M10 J5 L3:L4 Q2" xr:uid="{4CBC4F7A-CAE0-4273-9B44-B686111ECF83}">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{4CBC4F7A-CAE0-4273-9B44-B686111ECF83}">
       <formula1>"""3,5,10,15,20"""</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J10 L6:L10 L3:L4" xr:uid="{638F3690-EE2A-454A-9984-B221A0E4CF0F}">
-      <formula1>"""NIFTY,BANKNIFTY,FINNIFTY,MIDCPNIFTY,SENSEX"""</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{1CBDF931-DD4D-4825-A66A-4FEF531E64FA}">
       <formula1>"""28-Mar-2024,04-Apr-2024,10-Apr-2024,18-Apr-2024,25-Apr-2024,02-May-2024,30-May-2024,27-Jun-2024,26-Sep-2024,26-Dec-2024,26-Jun-2025,24-Dec-2025,25-Jun-2026,31-Dec-2026,24-Jun-2027,30-Dec-2027,29-Jun-2028,28-Dec-2028"""</formula1>
@@ -1731,8 +1643,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{4DA76A91-6DD4-4492-8D94-9A9CA490D58C}">
       <formula1>"""NIFTY,BANKNIFTY,FINNIFTY,MIDCPNIFTY"""</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{C95600A7-9701-477B-B112-B3EEF3FCBA36}">
-      <formula1>""""""</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{35CBB2F0-DA03-4803-9267-B2EFBEA6190D}">
+      <formula1>"""01-Apr-2024,08-Apr-2024,15-Apr-2024,22-Apr-2024,29-Apr-2024,27-May-2024"""</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
